--- a/build/classes/db/RoomStock - backup.xlsx
+++ b/build/classes/db/RoomStock - backup.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redzer0\Desktop\iHotel\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059FFEF3-EFD1-4715-B180-770621201ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0E85EC-677A-42C3-9478-1218B8780EB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="2310" windowWidth="19395" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoomStock" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -293,12 +293,16 @@
   </si>
   <si>
     <t>Generated</t>
+  </si>
+  <si>
+    <t>Occupied</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,8 +338,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,31 +655,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -703,10 +712,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1001</v>
       </c>
       <c r="C2" t="s">
@@ -725,20 +734,20 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1002</v>
       </c>
       <c r="C3" t="s">
@@ -756,18 +765,21 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>2400</v>
+      </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1003</v>
       </c>
       <c r="C4" t="s">
@@ -786,20 +798,20 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1004</v>
       </c>
       <c r="C5" t="s">
@@ -818,20 +830,20 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1005</v>
       </c>
       <c r="C6" t="s">
@@ -850,20 +862,20 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1006</v>
       </c>
       <c r="C7" t="s">
@@ -882,20 +894,20 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1007</v>
       </c>
       <c r="C8" t="s">
@@ -913,18 +925,21 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>3600</v>
+      </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1008</v>
       </c>
       <c r="C9" t="s">
@@ -942,18 +957,21 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>3600</v>
+      </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2001</v>
       </c>
       <c r="C10" t="s">
@@ -971,18 +989,21 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>2500</v>
+      </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2002</v>
       </c>
       <c r="C11" t="s">
@@ -1000,18 +1021,21 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>2500</v>
+      </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>2003</v>
       </c>
       <c r="C12" t="s">
@@ -1029,18 +1053,21 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>2500</v>
+      </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2004</v>
       </c>
       <c r="C13" t="s">
@@ -1058,18 +1085,21 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>2500</v>
+      </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>2005</v>
       </c>
       <c r="C14" t="s">
@@ -1087,18 +1117,21 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>2500</v>
+      </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>2006</v>
       </c>
       <c r="C15" t="s">
@@ -1116,18 +1149,21 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>2500</v>
+      </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>2007</v>
       </c>
       <c r="C16" t="s">
@@ -1145,6 +1181,9 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>3800</v>
+      </c>
       <c r="I16" t="s">
         <v>11</v>
       </c>
@@ -1153,10 +1192,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2008</v>
       </c>
       <c r="C17" t="s">
@@ -1174,18 +1213,21 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>3800</v>
+      </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3001</v>
       </c>
       <c r="C18" t="s">
@@ -1203,18 +1245,21 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>2600</v>
+      </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>3002</v>
       </c>
       <c r="C19" t="s">
@@ -1232,6 +1277,9 @@
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>2600</v>
+      </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
@@ -1240,10 +1288,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>3003</v>
       </c>
       <c r="C20" t="s">
@@ -1261,18 +1309,21 @@
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>2600</v>
+      </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>3004</v>
       </c>
       <c r="C21" t="s">
@@ -1290,6 +1341,9 @@
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>2600</v>
+      </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
@@ -1298,10 +1352,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>3005</v>
       </c>
       <c r="C22" t="s">
@@ -1319,18 +1373,21 @@
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>3900</v>
+      </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>3006</v>
       </c>
       <c r="C23" t="s">
@@ -1348,18 +1405,21 @@
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>3900</v>
+      </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J23" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>3007</v>
       </c>
       <c r="C24" t="s">
@@ -1377,18 +1437,21 @@
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>3900</v>
+      </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J24" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>3008</v>
       </c>
       <c r="C25" t="s">
@@ -1406,18 +1469,21 @@
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>3900</v>
+      </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>4001</v>
       </c>
       <c r="C26" t="s">
@@ -1435,18 +1501,21 @@
       <c r="G26">
         <v>1</v>
       </c>
+      <c r="H26">
+        <v>2800</v>
+      </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>4002</v>
       </c>
       <c r="C27" t="s">
@@ -1464,18 +1533,21 @@
       <c r="G27">
         <v>1</v>
       </c>
+      <c r="H27">
+        <v>2800</v>
+      </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>4003</v>
       </c>
       <c r="C28" t="s">
@@ -1493,18 +1565,21 @@
       <c r="G28">
         <v>1</v>
       </c>
+      <c r="H28">
+        <v>4000</v>
+      </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>4004</v>
       </c>
       <c r="C29" t="s">
@@ -1522,18 +1597,21 @@
       <c r="G29">
         <v>1</v>
       </c>
+      <c r="H29">
+        <v>4000</v>
+      </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>4005</v>
       </c>
       <c r="C30" t="s">
@@ -1551,18 +1629,21 @@
       <c r="G30">
         <v>1</v>
       </c>
+      <c r="H30">
+        <v>4000</v>
+      </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>4006</v>
       </c>
       <c r="C31" t="s">
@@ -1580,18 +1661,21 @@
       <c r="G31">
         <v>1</v>
       </c>
+      <c r="H31">
+        <v>4000</v>
+      </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J31" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>4007</v>
       </c>
       <c r="C32" t="s">
@@ -1609,6 +1693,9 @@
       <c r="G32">
         <v>1</v>
       </c>
+      <c r="H32">
+        <v>4000</v>
+      </c>
       <c r="I32" t="s">
         <v>11</v>
       </c>
@@ -1617,10 +1704,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>4008</v>
       </c>
       <c r="C33" t="s">
@@ -1638,18 +1725,21 @@
       <c r="G33">
         <v>1</v>
       </c>
+      <c r="H33">
+        <v>4000</v>
+      </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>5001</v>
       </c>
       <c r="C34" t="s">
@@ -1667,6 +1757,9 @@
       <c r="G34">
         <v>1</v>
       </c>
+      <c r="H34">
+        <v>4000</v>
+      </c>
       <c r="I34" t="s">
         <v>11</v>
       </c>
@@ -1675,10 +1768,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>5002</v>
       </c>
       <c r="C35" t="s">
@@ -1696,18 +1789,21 @@
       <c r="G35">
         <v>1</v>
       </c>
+      <c r="H35">
+        <v>4000</v>
+      </c>
       <c r="I35" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>5003</v>
       </c>
       <c r="C36" t="s">
@@ -1725,18 +1821,21 @@
       <c r="G36">
         <v>1</v>
       </c>
+      <c r="H36">
+        <v>4000</v>
+      </c>
       <c r="I36" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J36" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>5004</v>
       </c>
       <c r="C37" t="s">
@@ -1754,18 +1853,21 @@
       <c r="G37">
         <v>1</v>
       </c>
+      <c r="H37">
+        <v>4000</v>
+      </c>
       <c r="I37" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>5005</v>
       </c>
       <c r="C38" t="s">
@@ -1783,6 +1885,9 @@
       <c r="G38">
         <v>1</v>
       </c>
+      <c r="H38">
+        <v>4000</v>
+      </c>
       <c r="I38" t="s">
         <v>11</v>
       </c>
@@ -1791,10 +1896,10 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>5006</v>
       </c>
       <c r="C39" t="s">
@@ -1812,18 +1917,21 @@
       <c r="G39">
         <v>1</v>
       </c>
+      <c r="H39">
+        <v>4000</v>
+      </c>
       <c r="I39" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J39" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>5007</v>
       </c>
       <c r="C40" t="s">
@@ -1841,6 +1949,9 @@
       <c r="G40">
         <v>1</v>
       </c>
+      <c r="H40">
+        <v>4000</v>
+      </c>
       <c r="I40" t="s">
         <v>11</v>
       </c>
@@ -1849,10 +1960,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>5008</v>
       </c>
       <c r="C41" t="s">
@@ -1870,18 +1981,21 @@
       <c r="G41">
         <v>1</v>
       </c>
+      <c r="H41">
+        <v>4000</v>
+      </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J41" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>6001</v>
       </c>
       <c r="C42" t="s">
@@ -1899,6 +2013,9 @@
       <c r="G42">
         <v>1</v>
       </c>
+      <c r="H42">
+        <v>4500</v>
+      </c>
       <c r="I42" t="s">
         <v>11</v>
       </c>
@@ -1907,10 +2024,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>6002</v>
       </c>
       <c r="C43" t="s">
@@ -1928,6 +2045,9 @@
       <c r="G43">
         <v>1</v>
       </c>
+      <c r="H43">
+        <v>4500</v>
+      </c>
       <c r="I43" t="s">
         <v>11</v>
       </c>
@@ -1936,10 +2056,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>6003</v>
       </c>
       <c r="C44" t="s">
@@ -1957,6 +2077,9 @@
       <c r="G44">
         <v>1</v>
       </c>
+      <c r="H44">
+        <v>4500</v>
+      </c>
       <c r="I44" t="s">
         <v>11</v>
       </c>
@@ -1965,10 +2088,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>6004</v>
       </c>
       <c r="C45" t="s">
@@ -1986,6 +2109,9 @@
       <c r="G45">
         <v>1</v>
       </c>
+      <c r="H45">
+        <v>4500</v>
+      </c>
       <c r="I45" t="s">
         <v>11</v>
       </c>
@@ -1994,10 +2120,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>6005</v>
       </c>
       <c r="C46" t="s">
@@ -2015,6 +2141,9 @@
       <c r="G46">
         <v>1</v>
       </c>
+      <c r="H46">
+        <v>4500</v>
+      </c>
       <c r="I46" t="s">
         <v>11</v>
       </c>
@@ -2023,10 +2152,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>6006</v>
       </c>
       <c r="C47" t="s">
@@ -2044,6 +2173,9 @@
       <c r="G47">
         <v>1</v>
       </c>
+      <c r="H47">
+        <v>4500</v>
+      </c>
       <c r="I47" t="s">
         <v>11</v>
       </c>
@@ -2052,10 +2184,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>6007</v>
       </c>
       <c r="C48" t="s">
@@ -2073,6 +2205,9 @@
       <c r="G48">
         <v>1</v>
       </c>
+      <c r="H48">
+        <v>4500</v>
+      </c>
       <c r="I48" t="s">
         <v>11</v>
       </c>
@@ -2081,10 +2216,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>6008</v>
       </c>
       <c r="C49" t="s">
@@ -2102,6 +2237,9 @@
       <c r="G49">
         <v>1</v>
       </c>
+      <c r="H49">
+        <v>4500</v>
+      </c>
       <c r="I49" t="s">
         <v>11</v>
       </c>
@@ -2110,10 +2248,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>7001</v>
       </c>
       <c r="C50" t="s">
@@ -2131,6 +2269,9 @@
       <c r="G50">
         <v>1</v>
       </c>
+      <c r="H50">
+        <v>6000</v>
+      </c>
       <c r="I50" t="s">
         <v>11</v>
       </c>
@@ -2139,10 +2280,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>7002</v>
       </c>
       <c r="C51" t="s">
@@ -2160,6 +2301,9 @@
       <c r="G51">
         <v>1</v>
       </c>
+      <c r="H51">
+        <v>6000</v>
+      </c>
       <c r="I51" t="s">
         <v>11</v>
       </c>
@@ -2168,10 +2312,10 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>7003</v>
       </c>
       <c r="C52" t="s">
@@ -2189,6 +2333,9 @@
       <c r="G52">
         <v>1</v>
       </c>
+      <c r="H52">
+        <v>6000</v>
+      </c>
       <c r="I52" t="s">
         <v>11</v>
       </c>
@@ -2197,10 +2344,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>7004</v>
       </c>
       <c r="C53" t="s">
@@ -2218,6 +2365,9 @@
       <c r="G53">
         <v>1</v>
       </c>
+      <c r="H53">
+        <v>6000</v>
+      </c>
       <c r="I53" t="s">
         <v>11</v>
       </c>
@@ -2226,10 +2376,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>7105</v>
       </c>
       <c r="C54" t="s">
@@ -2247,6 +2397,9 @@
       <c r="G54">
         <v>1</v>
       </c>
+      <c r="H54">
+        <v>6000</v>
+      </c>
       <c r="I54" t="s">
         <v>11</v>
       </c>
@@ -2255,10 +2408,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>7106</v>
       </c>
       <c r="C55" t="s">
@@ -2276,6 +2429,9 @@
       <c r="G55">
         <v>1</v>
       </c>
+      <c r="H55">
+        <v>6000</v>
+      </c>
       <c r="I55" t="s">
         <v>11</v>
       </c>
@@ -2284,10 +2440,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>7207</v>
       </c>
       <c r="C56" t="s">
@@ -2305,6 +2461,9 @@
       <c r="G56">
         <v>1</v>
       </c>
+      <c r="H56">
+        <v>8000</v>
+      </c>
       <c r="I56" t="s">
         <v>11</v>
       </c>
@@ -2313,10 +2472,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>7208</v>
       </c>
       <c r="C57" t="s">
@@ -2334,6 +2493,9 @@
       <c r="G57">
         <v>1</v>
       </c>
+      <c r="H57">
+        <v>8000</v>
+      </c>
       <c r="I57" t="s">
         <v>11</v>
       </c>
@@ -2342,10 +2504,10 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>8001</v>
       </c>
       <c r="C58" t="s">
@@ -2363,6 +2525,9 @@
       <c r="G58">
         <v>1</v>
       </c>
+      <c r="H58">
+        <v>6500</v>
+      </c>
       <c r="I58" t="s">
         <v>11</v>
       </c>
@@ -2371,10 +2536,10 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>8002</v>
       </c>
       <c r="C59" t="s">
@@ -2392,6 +2557,9 @@
       <c r="G59">
         <v>1</v>
       </c>
+      <c r="H59">
+        <v>6500</v>
+      </c>
       <c r="I59" t="s">
         <v>11</v>
       </c>
@@ -2400,10 +2568,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>8003</v>
       </c>
       <c r="C60" t="s">
@@ -2421,6 +2589,9 @@
       <c r="G60">
         <v>1</v>
       </c>
+      <c r="H60">
+        <v>7500</v>
+      </c>
       <c r="I60" t="s">
         <v>11</v>
       </c>
@@ -2429,10 +2600,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>8004</v>
       </c>
       <c r="C61" t="s">
@@ -2450,6 +2621,9 @@
       <c r="G61">
         <v>1</v>
       </c>
+      <c r="H61">
+        <v>7500</v>
+      </c>
       <c r="I61" t="s">
         <v>11</v>
       </c>
@@ -2458,10 +2632,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>8005</v>
       </c>
       <c r="C62" t="s">
@@ -2479,6 +2653,9 @@
       <c r="G62">
         <v>1</v>
       </c>
+      <c r="H62">
+        <v>7500</v>
+      </c>
       <c r="I62" t="s">
         <v>11</v>
       </c>
@@ -2487,10 +2664,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>8006</v>
       </c>
       <c r="C63" t="s">
@@ -2508,6 +2685,9 @@
       <c r="G63">
         <v>1</v>
       </c>
+      <c r="H63">
+        <v>7500</v>
+      </c>
       <c r="I63" t="s">
         <v>11</v>
       </c>
@@ -2516,10 +2696,10 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>9001</v>
       </c>
       <c r="C64" t="s">
@@ -2537,6 +2717,9 @@
       <c r="G64">
         <v>1</v>
       </c>
+      <c r="H64">
+        <v>8000</v>
+      </c>
       <c r="I64" t="s">
         <v>11</v>
       </c>
@@ -2545,10 +2728,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>9002</v>
       </c>
       <c r="C65" t="s">
@@ -2566,6 +2749,9 @@
       <c r="G65">
         <v>1</v>
       </c>
+      <c r="H65">
+        <v>8000</v>
+      </c>
       <c r="I65" t="s">
         <v>11</v>
       </c>
@@ -2574,10 +2760,10 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>9101</v>
       </c>
       <c r="C66" t="s">
@@ -2595,6 +2781,9 @@
       <c r="G66">
         <v>1</v>
       </c>
+      <c r="H66">
+        <v>12000</v>
+      </c>
       <c r="I66" t="s">
         <v>11</v>
       </c>
@@ -2603,10 +2792,10 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>9102</v>
       </c>
       <c r="C67" t="s">
@@ -2624,12 +2813,18 @@
       <c r="G67">
         <v>1</v>
       </c>
+      <c r="H67">
+        <v>12000</v>
+      </c>
       <c r="I67" t="s">
         <v>11</v>
       </c>
       <c r="J67" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
